--- a/biology/Zoologie/Bernache_à_cou_roux/Bernache_à_cou_roux.xlsx
+++ b/biology/Zoologie/Bernache_à_cou_roux/Bernache_à_cou_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bernache_%C3%A0_cou_roux</t>
+          <t>Bernache_à_cou_roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Branta ruficollis
 La Bernache à cou roux, Branta ruficollis, est une espèce d'oiseaux de la famille des Anatidae et de la sous-famille des Anserinae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bernache_%C3%A0_cou_roux</t>
+          <t>Bernache_à_cou_roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesurant environ de 54 cm à 60 cm de longueur pour 110 à 125 cm d'envergure, cette petite oie a un plumage facilement reconnaissable, le corps et le derrière du cou sont noirs tandis que les joues et le cou sont roux avec un liseré blanc.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bernache_%C3%A0_cou_roux</t>
+          <t>Bernache_à_cou_roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle niche dans la toundra du nord de la Sibérie notamment dans la péninsule de Taïmyr.
 Elle hiverne dans les steppes du sud-est de l'Europe (Bulgarie, Roumanie, Ukraine, sud de la Russie) et jusqu'au Kazakhstan.
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bernache_%C3%A0_cou_roux</t>
+          <t>Bernache_à_cou_roux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle niche au mois de juin en petites colonies souvent sur un talus ou une falaise. Le nid est souvent placé près de l'aire d'un faucon pèlerin, d'une buse pattue ou d'une chouette harfang qui assurent la protection contre les renards et les hermines.
 Le départ en migration a lieu dès le mois de septembre, l'espèce forme alors de grandes troupes souvent mêlées à celles de l'oie rieuse.
@@ -593,7 +611,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bernache_%C3%A0_cou_roux</t>
+          <t>Bernache_à_cou_roux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +629,9 @@
           <t>Populations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une espèce rare dont la population est estimée à 88 000 individus, elle souffre principalement de la chasse excessive sur les aires d'hivernage ainsi que du drainage des zones humides.
 </t>
@@ -624,7 +644,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bernache_%C3%A0_cou_roux</t>
+          <t>Bernache_à_cou_roux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -642,7 +662,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est classée "vulnérable" par l'UICN. Elle est fréquemment chassée et dérangée sur ses sites de fourragement.
 La bernache à cou roux bénéficie d'une protection totale sur le territoire français depuis l'arrêté ministériel du 17 avril 1981 relatif aux oiseaux protégés sur l'ensemble du territoire. Il est donc interdit de la détruire, la mutiler, la capturer ou l'enlever, de la perturber intentionnellement ou de la naturaliser, ainsi que de détruire ou enlever les œufs et les nids, et de détruire, altérer ou dégrader son milieu. Qu'elle soit vivante ou morte, il est aussi interdit de la transporter, colporter, de l'utiliser, de la détenir, de la vendre ou de l'acheter.
@@ -658,7 +680,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Bernache_%C3%A0_cou_roux</t>
+          <t>Bernache_à_cou_roux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -676,7 +698,9 @@
           <t>Voix</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">"Kik-ouik" strident.   
 </t>
